--- a/df_list_20241218.xlsx
+++ b/df_list_20241218.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="251">
   <si>
     <t>SITE_NO</t>
   </si>
@@ -682,6 +682,93 @@
   </si>
   <si>
     <t>함안군 농촌공간 재구조화 및 재생 기본계획 수립용역 제안서 평가 결과</t>
+  </si>
+  <si>
+    <t>A122</t>
+  </si>
+  <si>
+    <t>전라도_군산시</t>
+  </si>
+  <si>
+    <t>https://eminwon.gunsan.go.kr/emwp/jsp/ofr/OfrNotAncmtLSub.jsp?not_ancmt_se_code=01,02,03,04,05</t>
+  </si>
+  <si>
+    <t>군산시육아종합지원센터 수탁기관 선정심사위원회 심의결과 공고</t>
+  </si>
+  <si>
+    <t>A158</t>
+  </si>
+  <si>
+    <t>경상도_경산시</t>
+  </si>
+  <si>
+    <t>https://www.gbgs.go.kr/open_content/ko/page.do?mnu_uid=2160&amp;pageSize=90</t>
+  </si>
+  <si>
+    <t>「남산면 기초생활거점조성사업 지역역량강화(SW)용역」제안서 평가위원(후보자) 모집 공고</t>
+  </si>
+  <si>
+    <t>A160</t>
+  </si>
+  <si>
+    <t>경상도_구미시</t>
+  </si>
+  <si>
+    <t>https://www.gumi.go.kr/portal/saeol/gosi/list.do?seCode=01&amp;mid=0401040000</t>
+  </si>
+  <si>
+    <t>「2025년디지털 기반 노후 위험시설 안전관리시스템 유지보수 용역」제안서 평가위원 명단 및 평가결과 공개</t>
+  </si>
+  <si>
+    <t>「구미시 스마트 돌봄서비스 통합관제・출동 시스템 운영 용역」제안서 평가 결과 공개</t>
+  </si>
+  <si>
+    <t>A177</t>
+  </si>
+  <si>
+    <t>경상도_청도군</t>
+  </si>
+  <si>
+    <t>https://www.cheongdo.go.kr/portal/saeol/gosi/list.do?mid=0301020000&amp;token=1703813401840</t>
+  </si>
+  <si>
+    <t>제안서 평가위원회(후보자) 모집 재공고(2차)(청도생활문화복합센터 공연장 무대조명장치 구매·설치)</t>
+  </si>
+  <si>
+    <t>제안서 평가위원(후보자) 모집 재공고(청도생활문화복합센터 공연장 무대조명장치구매·설치)</t>
+  </si>
+  <si>
+    <t>「청도농공단지아름다운거리조성사업 기본 및 실시설계 용역」제안서 평가결과 공고</t>
+  </si>
+  <si>
+    <t>2024년 제4회 청도군 건축위원회 심의 결과 공고</t>
+  </si>
+  <si>
+    <t>A179</t>
+  </si>
+  <si>
+    <t>경상도_칠곡군</t>
+  </si>
+  <si>
+    <t>https://www.chilgok.go.kr/portal/saeol/gosi/list.do?mId=0201030000</t>
+  </si>
+  <si>
+    <t>「지천면 기초생활거점조성사업 지역역량강화(SW) 용역」 제안서 평가결과 공개</t>
+  </si>
+  <si>
+    <t>https://www.gurye.go.kr/board/GosiList.do?not_ancmt_se_code=01,04,06,07&amp;menuNo=115004002001&amp;pageIndex=2</t>
+  </si>
+  <si>
+    <t>A146</t>
+  </si>
+  <si>
+    <t>전라도_무안군</t>
+  </si>
+  <si>
+    <t>https://www.muan.go.kr/www/openmuan/new/announcement?page=1</t>
+  </si>
+  <si>
+    <t>「2024년 무안군 스마트도시 솔루션 확산사업」제안서 평가위원(후보자) ...</t>
   </si>
 </sst>
 </file>
@@ -692,7 +779,7 @@
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -714,6 +801,10 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -744,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -754,6 +845,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2417,27 +2514,426 @@
         <v>45644.55880787037</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="4">
+        <v>45642.0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E74" s="4">
+        <v>45643.0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" s="4">
+        <v>45644.0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="4">
+        <v>45643.0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E77" s="4">
+        <v>45644.0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E78" s="4">
+        <v>45643.0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E79" s="4">
+        <v>45643.0</v>
+      </c>
+      <c r="F79" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="4">
+        <v>45642.0</v>
+      </c>
+      <c r="F80" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" s="4">
+        <v>45642.0</v>
+      </c>
+      <c r="F81" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="4">
+        <v>45643.0</v>
+      </c>
+      <c r="F82" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="4">
+        <v>45643.0</v>
+      </c>
+      <c r="F83" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="4">
+        <v>45642.0</v>
+      </c>
+      <c r="F84" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="4">
+        <v>45642.0</v>
+      </c>
+      <c r="F85" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="4">
+        <v>45642.0</v>
+      </c>
+      <c r="F86" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" s="4">
+        <v>45643.0</v>
+      </c>
+      <c r="F87" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="4">
+        <v>45642.0</v>
+      </c>
+      <c r="F88" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89" s="4">
+        <v>45643.0</v>
+      </c>
+      <c r="F89" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E90" s="4">
+        <v>45643.0</v>
+      </c>
+      <c r="F90" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E91" s="4">
+        <v>45642.0</v>
+      </c>
+      <c r="F91" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E92" s="4">
+        <v>45644.0</v>
+      </c>
+      <c r="F92" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="4">
+        <v>45642.0</v>
+      </c>
+      <c r="F93" s="4">
+        <v>45644.850648148145</v>
+      </c>
+    </row>
     <row r="94" ht="15.75" customHeight="1"/>
     <row r="95" ht="15.75" customHeight="1"/>
     <row r="96" ht="15.75" customHeight="1"/>
@@ -3346,9 +3842,32 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C73"/>
+    <hyperlink r:id="rId2" ref="C74"/>
+    <hyperlink r:id="rId3" ref="C75"/>
+    <hyperlink r:id="rId4" ref="C76"/>
+    <hyperlink r:id="rId5" ref="C77"/>
+    <hyperlink r:id="rId6" ref="C78"/>
+    <hyperlink r:id="rId7" ref="C79"/>
+    <hyperlink r:id="rId8" ref="C80"/>
+    <hyperlink r:id="rId9" ref="C81"/>
+    <hyperlink r:id="rId10" location="list/1" ref="C82"/>
+    <hyperlink r:id="rId11" location="list/1" ref="C83"/>
+    <hyperlink r:id="rId12" location="list/1" ref="C84"/>
+    <hyperlink r:id="rId13" location="list/1" ref="C85"/>
+    <hyperlink r:id="rId14" location="list/1" ref="C86"/>
+    <hyperlink r:id="rId15" ref="C87"/>
+    <hyperlink r:id="rId16" ref="C88"/>
+    <hyperlink r:id="rId17" ref="C89"/>
+    <hyperlink r:id="rId18" ref="C90"/>
+    <hyperlink r:id="rId19" ref="C91"/>
+    <hyperlink r:id="rId20" ref="C92"/>
+    <hyperlink r:id="rId21" ref="C93"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId22"/>
 </worksheet>
 </file>